--- a/metrics/transfer_time/cleaned_data/nginx_04.nan.xlsx
+++ b/metrics/transfer_time/cleaned_data/nginx_04.nan.xlsx
@@ -619,13 +619,27 @@
       <c r="R2" t="n">
         <v>1300</v>
       </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U2" t="n">
+        <v>10820726</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" t="n">
+        <v>20</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2848</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -682,13 +696,27 @@
       <c r="R3" t="n">
         <v>1297</v>
       </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U3" t="n">
+        <v>10820726</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3</v>
+      </c>
+      <c r="W3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2848</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -822,13 +850,27 @@
       <c r="R5" t="n">
         <v>1297</v>
       </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U5" t="n">
+        <v>10820726</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3</v>
+      </c>
+      <c r="W5" t="n">
+        <v>20</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2848</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -885,13 +927,27 @@
       <c r="R6" t="n">
         <v>1297</v>
       </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U6" t="n">
+        <v>10820726</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3</v>
+      </c>
+      <c r="W6" t="n">
+        <v>20</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2848</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -948,13 +1004,27 @@
       <c r="R7" t="n">
         <v>1297</v>
       </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U7" t="n">
+        <v>10820726</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3</v>
+      </c>
+      <c r="W7" t="n">
+        <v>20</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2848</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1011,13 +1081,27 @@
       <c r="R8" t="n">
         <v>1303</v>
       </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U8" t="n">
+        <v>10820726</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3</v>
+      </c>
+      <c r="W8" t="n">
+        <v>20</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2848</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1151,13 +1235,27 @@
       <c r="R10" t="n">
         <v>1299</v>
       </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U10" t="n">
+        <v>10821027</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3</v>
+      </c>
+      <c r="W10" t="n">
+        <v>20</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1992</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1214,13 +1312,27 @@
       <c r="R11" t="n">
         <v>1299</v>
       </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U11" t="n">
+        <v>10821027</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3</v>
+      </c>
+      <c r="W11" t="n">
+        <v>20</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1992</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1277,13 +1389,27 @@
       <c r="R12" t="n">
         <v>1297</v>
       </c>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U12" t="n">
+        <v>10821027</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3</v>
+      </c>
+      <c r="W12" t="n">
+        <v>20</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1992</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1340,13 +1466,27 @@
       <c r="R13" t="n">
         <v>1296</v>
       </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U13" t="n">
+        <v>10821027</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3</v>
+      </c>
+      <c r="W13" t="n">
+        <v>20</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1992</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1480,13 +1620,27 @@
       <c r="R15" t="n">
         <v>1297</v>
       </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U15" t="n">
+        <v>10821326</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3</v>
+      </c>
+      <c r="W15" t="n">
+        <v>21</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1757</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1543,13 +1697,27 @@
       <c r="R16" t="n">
         <v>1297</v>
       </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U16" t="n">
+        <v>10821326</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3</v>
+      </c>
+      <c r="W16" t="n">
+        <v>21</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1757</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1606,13 +1774,27 @@
       <c r="R17" t="n">
         <v>1297</v>
       </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U17" t="n">
+        <v>10821326</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3</v>
+      </c>
+      <c r="W17" t="n">
+        <v>21</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1757</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1669,13 +1851,27 @@
       <c r="R18" t="n">
         <v>1296</v>
       </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U18" t="n">
+        <v>10821326</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3</v>
+      </c>
+      <c r="W18" t="n">
+        <v>21</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1757</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1809,13 +2005,27 @@
       <c r="R20" t="n">
         <v>1297</v>
       </c>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U20" t="n">
+        <v>10821626</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3</v>
+      </c>
+      <c r="W20" t="n">
+        <v>18</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1478</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1872,13 +2082,27 @@
       <c r="R21" t="n">
         <v>1297</v>
       </c>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U21" t="n">
+        <v>10821626</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3</v>
+      </c>
+      <c r="W21" t="n">
+        <v>18</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1478</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1935,13 +2159,27 @@
       <c r="R22" t="n">
         <v>1296</v>
       </c>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U22" t="n">
+        <v>10821626</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3</v>
+      </c>
+      <c r="W22" t="n">
+        <v>18</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1478</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1998,13 +2236,27 @@
       <c r="R23" t="n">
         <v>1297</v>
       </c>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U23" t="n">
+        <v>10821626</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3</v>
+      </c>
+      <c r="W23" t="n">
+        <v>18</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1478</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -2138,13 +2390,27 @@
       <c r="R25" t="n">
         <v>1297</v>
       </c>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U25" t="n">
+        <v>10821926</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3</v>
+      </c>
+      <c r="W25" t="n">
+        <v>20</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1378</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -2201,13 +2467,27 @@
       <c r="R26" t="n">
         <v>1297</v>
       </c>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U26" t="n">
+        <v>10821926</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3</v>
+      </c>
+      <c r="W26" t="n">
+        <v>20</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1378</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -2264,13 +2544,27 @@
       <c r="R27" t="n">
         <v>1297</v>
       </c>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U27" t="n">
+        <v>10821926</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3</v>
+      </c>
+      <c r="W27" t="n">
+        <v>20</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1378</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -2327,13 +2621,27 @@
       <c r="R28" t="n">
         <v>1296</v>
       </c>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
+      <c r="S28" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U28" t="n">
+        <v>10821926</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3</v>
+      </c>
+      <c r="W28" t="n">
+        <v>20</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1378</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2467,13 +2775,27 @@
       <c r="R30" t="n">
         <v>1297</v>
       </c>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
+      <c r="S30" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U30" t="n">
+        <v>10822226</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3</v>
+      </c>
+      <c r="W30" t="n">
+        <v>18</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1723</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2530,13 +2852,27 @@
       <c r="R31" t="n">
         <v>1297</v>
       </c>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
+      <c r="S31" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U31" t="n">
+        <v>10822226</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3</v>
+      </c>
+      <c r="W31" t="n">
+        <v>18</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1723</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2593,13 +2929,27 @@
       <c r="R32" t="n">
         <v>1297</v>
       </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U32" t="n">
+        <v>10822226</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3</v>
+      </c>
+      <c r="W32" t="n">
+        <v>18</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1723</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2656,13 +3006,27 @@
       <c r="R33" t="n">
         <v>1296</v>
       </c>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U33" t="n">
+        <v>10822226</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3</v>
+      </c>
+      <c r="W33" t="n">
+        <v>18</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1723</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2796,13 +3160,27 @@
       <c r="R35" t="n">
         <v>1297</v>
       </c>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U35" t="n">
+        <v>10822526</v>
+      </c>
+      <c r="V35" t="n">
+        <v>4</v>
+      </c>
+      <c r="W35" t="n">
+        <v>20</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1706</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2859,13 +3237,27 @@
       <c r="R36" t="n">
         <v>1297</v>
       </c>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U36" t="n">
+        <v>10822526</v>
+      </c>
+      <c r="V36" t="n">
+        <v>4</v>
+      </c>
+      <c r="W36" t="n">
+        <v>20</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1706</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2922,13 +3314,27 @@
       <c r="R37" t="n">
         <v>1297</v>
       </c>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U37" t="n">
+        <v>10822526</v>
+      </c>
+      <c r="V37" t="n">
+        <v>4</v>
+      </c>
+      <c r="W37" t="n">
+        <v>20</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1706</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2985,13 +3391,27 @@
       <c r="R38" t="n">
         <v>1296</v>
       </c>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
+      <c r="S38" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U38" t="n">
+        <v>10822526</v>
+      </c>
+      <c r="V38" t="n">
+        <v>4</v>
+      </c>
+      <c r="W38" t="n">
+        <v>20</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1706</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -3125,13 +3545,27 @@
       <c r="R40" t="n">
         <v>1297</v>
       </c>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
+      <c r="S40" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U40" t="n">
+        <v>10822826</v>
+      </c>
+      <c r="V40" t="n">
+        <v>4</v>
+      </c>
+      <c r="W40" t="n">
+        <v>18</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1511</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -3188,13 +3622,27 @@
       <c r="R41" t="n">
         <v>1297</v>
       </c>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
+      <c r="S41" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U41" t="n">
+        <v>10822826</v>
+      </c>
+      <c r="V41" t="n">
+        <v>4</v>
+      </c>
+      <c r="W41" t="n">
+        <v>18</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1511</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -3251,13 +3699,27 @@
       <c r="R42" t="n">
         <v>1296</v>
       </c>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
+      <c r="S42" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U42" t="n">
+        <v>10822826</v>
+      </c>
+      <c r="V42" t="n">
+        <v>4</v>
+      </c>
+      <c r="W42" t="n">
+        <v>18</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1511</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -3314,13 +3776,27 @@
       <c r="R43" t="n">
         <v>1296</v>
       </c>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
+      <c r="S43" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U43" t="n">
+        <v>10822826</v>
+      </c>
+      <c r="V43" t="n">
+        <v>4</v>
+      </c>
+      <c r="W43" t="n">
+        <v>18</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1511</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -3454,13 +3930,27 @@
       <c r="R45" t="n">
         <v>1298</v>
       </c>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
+      <c r="S45" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U45" t="n">
+        <v>10823126</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3</v>
+      </c>
+      <c r="W45" t="n">
+        <v>20</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1369</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -3517,13 +4007,27 @@
       <c r="R46" t="n">
         <v>1297</v>
       </c>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
+      <c r="S46" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U46" t="n">
+        <v>10823126</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3</v>
+      </c>
+      <c r="W46" t="n">
+        <v>20</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1369</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -3580,13 +4084,27 @@
       <c r="R47" t="n">
         <v>1297</v>
       </c>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
+      <c r="S47" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U47" t="n">
+        <v>10823126</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3</v>
+      </c>
+      <c r="W47" t="n">
+        <v>20</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1369</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3643,13 +4161,27 @@
       <c r="R48" t="n">
         <v>1297</v>
       </c>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
+      <c r="S48" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U48" t="n">
+        <v>10823126</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3</v>
+      </c>
+      <c r="W48" t="n">
+        <v>20</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1369</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3783,13 +4315,27 @@
       <c r="R50" t="n">
         <v>1297</v>
       </c>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
+      <c r="S50" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U50" t="n">
+        <v>10823426</v>
+      </c>
+      <c r="V50" t="n">
+        <v>3</v>
+      </c>
+      <c r="W50" t="n">
+        <v>18</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1087</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3846,13 +4392,27 @@
       <c r="R51" t="n">
         <v>1297</v>
       </c>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
+      <c r="S51" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U51" t="n">
+        <v>10823426</v>
+      </c>
+      <c r="V51" t="n">
+        <v>3</v>
+      </c>
+      <c r="W51" t="n">
+        <v>18</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1087</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3909,13 +4469,27 @@
       <c r="R52" t="n">
         <v>1302</v>
       </c>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
+      <c r="S52" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U52" t="n">
+        <v>10823426</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3</v>
+      </c>
+      <c r="W52" t="n">
+        <v>18</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1087</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3972,13 +4546,27 @@
       <c r="R53" t="n">
         <v>1299</v>
       </c>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
+      <c r="S53" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U53" t="n">
+        <v>10823426</v>
+      </c>
+      <c r="V53" t="n">
+        <v>3</v>
+      </c>
+      <c r="W53" t="n">
+        <v>18</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1087</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -4112,13 +4700,27 @@
       <c r="R55" t="n">
         <v>1296</v>
       </c>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
+      <c r="S55" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U55" t="n">
+        <v>10823726</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3</v>
+      </c>
+      <c r="W55" t="n">
+        <v>22</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1488</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -4175,13 +4777,27 @@
       <c r="R56" t="n">
         <v>1297</v>
       </c>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
+      <c r="S56" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U56" t="n">
+        <v>10823726</v>
+      </c>
+      <c r="V56" t="n">
+        <v>3</v>
+      </c>
+      <c r="W56" t="n">
+        <v>22</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1488</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -4238,13 +4854,27 @@
       <c r="R57" t="n">
         <v>1296</v>
       </c>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
+      <c r="S57" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U57" t="n">
+        <v>10823726</v>
+      </c>
+      <c r="V57" t="n">
+        <v>3</v>
+      </c>
+      <c r="W57" t="n">
+        <v>22</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1488</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -4301,13 +4931,27 @@
       <c r="R58" t="n">
         <v>1296</v>
       </c>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
+      <c r="S58" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U58" t="n">
+        <v>10823726</v>
+      </c>
+      <c r="V58" t="n">
+        <v>3</v>
+      </c>
+      <c r="W58" t="n">
+        <v>22</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1488</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -4441,13 +5085,27 @@
       <c r="R60" t="n">
         <v>1297</v>
       </c>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
+      <c r="S60" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U60" t="n">
+        <v>10824026</v>
+      </c>
+      <c r="V60" t="n">
+        <v>4</v>
+      </c>
+      <c r="W60" t="n">
+        <v>21</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1748</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -4504,13 +5162,27 @@
       <c r="R61" t="n">
         <v>1297</v>
       </c>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
+      <c r="S61" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U61" t="n">
+        <v>10824026</v>
+      </c>
+      <c r="V61" t="n">
+        <v>4</v>
+      </c>
+      <c r="W61" t="n">
+        <v>21</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1748</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -4561,17 +5233,33 @@
       <c r="P62" t="n">
         <v>180</v>
       </c>
-      <c r="Q62" t="inlineStr"/>
+      <c r="Q62" t="n">
+        <v>2492</v>
+      </c>
       <c r="R62" t="n">
         <v>1297</v>
       </c>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
+      <c r="S62" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U62" t="n">
+        <v>10824026</v>
+      </c>
+      <c r="V62" t="n">
+        <v>4</v>
+      </c>
+      <c r="W62" t="n">
+        <v>21</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1748</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -4622,17 +5310,33 @@
       <c r="P63" t="n">
         <v>180</v>
       </c>
-      <c r="Q63" t="inlineStr"/>
+      <c r="Q63" t="n">
+        <v>2492</v>
+      </c>
       <c r="R63" t="n">
         <v>1297</v>
       </c>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
+      <c r="S63" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U63" t="n">
+        <v>10824026</v>
+      </c>
+      <c r="V63" t="n">
+        <v>4</v>
+      </c>
+      <c r="W63" t="n">
+        <v>21</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1748</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -4683,7 +5387,9 @@
       <c r="P64" t="n">
         <v>180</v>
       </c>
-      <c r="Q64" t="inlineStr"/>
+      <c r="Q64" t="n">
+        <v>2492</v>
+      </c>
       <c r="R64" t="n">
         <v>1299</v>
       </c>
@@ -4702,7 +5408,9 @@
       <c r="W64" t="n">
         <v>20</v>
       </c>
-      <c r="X64" t="inlineStr"/>
+      <c r="X64" t="n">
+        <v>1</v>
+      </c>
       <c r="Y64" t="n">
         <v>1790</v>
       </c>
@@ -4756,17 +5464,33 @@
       <c r="P65" t="n">
         <v>180</v>
       </c>
-      <c r="Q65" t="inlineStr"/>
+      <c r="Q65" t="n">
+        <v>2492</v>
+      </c>
       <c r="R65" t="n">
         <v>1297</v>
       </c>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
+      <c r="S65" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U65" t="n">
+        <v>10824326</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3</v>
+      </c>
+      <c r="W65" t="n">
+        <v>20</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1790</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -4817,17 +5541,33 @@
       <c r="P66" t="n">
         <v>180</v>
       </c>
-      <c r="Q66" t="inlineStr"/>
+      <c r="Q66" t="n">
+        <v>2492</v>
+      </c>
       <c r="R66" t="n">
         <v>1297</v>
       </c>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
+      <c r="S66" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U66" t="n">
+        <v>10824326</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3</v>
+      </c>
+      <c r="W66" t="n">
+        <v>20</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1790</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4878,17 +5618,33 @@
       <c r="P67" t="n">
         <v>180</v>
       </c>
-      <c r="Q67" t="inlineStr"/>
+      <c r="Q67" t="n">
+        <v>2492</v>
+      </c>
       <c r="R67" t="n">
         <v>1298</v>
       </c>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
+      <c r="S67" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U67" t="n">
+        <v>10824326</v>
+      </c>
+      <c r="V67" t="n">
+        <v>3</v>
+      </c>
+      <c r="W67" t="n">
+        <v>20</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1790</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4939,17 +5695,33 @@
       <c r="P68" t="n">
         <v>180</v>
       </c>
-      <c r="Q68" t="inlineStr"/>
+      <c r="Q68" t="n">
+        <v>2492</v>
+      </c>
       <c r="R68" t="n">
         <v>1296</v>
       </c>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
+      <c r="S68" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U68" t="n">
+        <v>10824326</v>
+      </c>
+      <c r="V68" t="n">
+        <v>3</v>
+      </c>
+      <c r="W68" t="n">
+        <v>20</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1790</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -5000,7 +5772,9 @@
       <c r="P69" t="n">
         <v>180</v>
       </c>
-      <c r="Q69" t="inlineStr"/>
+      <c r="Q69" t="n">
+        <v>2492</v>
+      </c>
       <c r="R69" t="n">
         <v>1300</v>
       </c>
@@ -5019,7 +5793,9 @@
       <c r="W69" t="n">
         <v>18</v>
       </c>
-      <c r="X69" t="inlineStr"/>
+      <c r="X69" t="n">
+        <v>1</v>
+      </c>
       <c r="Y69" t="n">
         <v>1547</v>
       </c>
@@ -5073,17 +5849,33 @@
       <c r="P70" t="n">
         <v>180</v>
       </c>
-      <c r="Q70" t="inlineStr"/>
+      <c r="Q70" t="n">
+        <v>2492</v>
+      </c>
       <c r="R70" t="n">
         <v>1297</v>
       </c>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
+      <c r="S70" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U70" t="n">
+        <v>10824626</v>
+      </c>
+      <c r="V70" t="n">
+        <v>5</v>
+      </c>
+      <c r="W70" t="n">
+        <v>18</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>1547</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -5134,17 +5926,33 @@
       <c r="P71" t="n">
         <v>180</v>
       </c>
-      <c r="Q71" t="inlineStr"/>
+      <c r="Q71" t="n">
+        <v>2492</v>
+      </c>
       <c r="R71" t="n">
         <v>1297</v>
       </c>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
+      <c r="S71" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U71" t="n">
+        <v>10824626</v>
+      </c>
+      <c r="V71" t="n">
+        <v>5</v>
+      </c>
+      <c r="W71" t="n">
+        <v>18</v>
+      </c>
+      <c r="X71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1547</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -5195,17 +6003,33 @@
       <c r="P72" t="n">
         <v>180</v>
       </c>
-      <c r="Q72" t="inlineStr"/>
+      <c r="Q72" t="n">
+        <v>2492</v>
+      </c>
       <c r="R72" t="n">
         <v>1297</v>
       </c>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
+      <c r="S72" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U72" t="n">
+        <v>10824626</v>
+      </c>
+      <c r="V72" t="n">
+        <v>5</v>
+      </c>
+      <c r="W72" t="n">
+        <v>18</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1547</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -5256,17 +6080,33 @@
       <c r="P73" t="n">
         <v>180</v>
       </c>
-      <c r="Q73" t="inlineStr"/>
+      <c r="Q73" t="n">
+        <v>2492</v>
+      </c>
       <c r="R73" t="n">
         <v>1296</v>
       </c>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
+      <c r="S73" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U73" t="n">
+        <v>10824626</v>
+      </c>
+      <c r="V73" t="n">
+        <v>5</v>
+      </c>
+      <c r="W73" t="n">
+        <v>18</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1547</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -5317,7 +6157,9 @@
       <c r="P74" t="n">
         <v>180</v>
       </c>
-      <c r="Q74" t="inlineStr"/>
+      <c r="Q74" t="n">
+        <v>2492</v>
+      </c>
       <c r="R74" t="n">
         <v>1296</v>
       </c>
@@ -5336,7 +6178,9 @@
       <c r="W74" t="n">
         <v>20</v>
       </c>
-      <c r="X74" t="inlineStr"/>
+      <c r="X74" t="n">
+        <v>1</v>
+      </c>
       <c r="Y74" t="n">
         <v>1244</v>
       </c>
@@ -5390,17 +6234,33 @@
       <c r="P75" t="n">
         <v>180</v>
       </c>
-      <c r="Q75" t="inlineStr"/>
+      <c r="Q75" t="n">
+        <v>2492</v>
+      </c>
       <c r="R75" t="n">
         <v>1297</v>
       </c>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
+      <c r="S75" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U75" t="n">
+        <v>10824927</v>
+      </c>
+      <c r="V75" t="n">
+        <v>3</v>
+      </c>
+      <c r="W75" t="n">
+        <v>20</v>
+      </c>
+      <c r="X75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>1244</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -5451,17 +6311,33 @@
       <c r="P76" t="n">
         <v>180</v>
       </c>
-      <c r="Q76" t="inlineStr"/>
+      <c r="Q76" t="n">
+        <v>2492</v>
+      </c>
       <c r="R76" t="n">
         <v>1297</v>
       </c>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
+      <c r="S76" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U76" t="n">
+        <v>10824927</v>
+      </c>
+      <c r="V76" t="n">
+        <v>3</v>
+      </c>
+      <c r="W76" t="n">
+        <v>20</v>
+      </c>
+      <c r="X76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>1244</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -5512,17 +6388,33 @@
       <c r="P77" t="n">
         <v>180</v>
       </c>
-      <c r="Q77" t="inlineStr"/>
+      <c r="Q77" t="n">
+        <v>2492</v>
+      </c>
       <c r="R77" t="n">
         <v>1296</v>
       </c>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
+      <c r="S77" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U77" t="n">
+        <v>10824927</v>
+      </c>
+      <c r="V77" t="n">
+        <v>3</v>
+      </c>
+      <c r="W77" t="n">
+        <v>20</v>
+      </c>
+      <c r="X77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>1244</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -5573,17 +6465,33 @@
       <c r="P78" t="n">
         <v>180</v>
       </c>
-      <c r="Q78" t="inlineStr"/>
+      <c r="Q78" t="n">
+        <v>2492</v>
+      </c>
       <c r="R78" t="n">
         <v>1296</v>
       </c>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
+      <c r="S78" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U78" t="n">
+        <v>10824927</v>
+      </c>
+      <c r="V78" t="n">
+        <v>3</v>
+      </c>
+      <c r="W78" t="n">
+        <v>20</v>
+      </c>
+      <c r="X78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1244</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -5634,7 +6542,9 @@
       <c r="P79" t="n">
         <v>180</v>
       </c>
-      <c r="Q79" t="inlineStr"/>
+      <c r="Q79" t="n">
+        <v>2492</v>
+      </c>
       <c r="R79" t="n">
         <v>1299</v>
       </c>
@@ -5653,7 +6563,9 @@
       <c r="W79" t="n">
         <v>20</v>
       </c>
-      <c r="X79" t="inlineStr"/>
+      <c r="X79" t="n">
+        <v>1</v>
+      </c>
       <c r="Y79" t="n">
         <v>1270</v>
       </c>
@@ -5707,17 +6619,33 @@
       <c r="P80" t="n">
         <v>180</v>
       </c>
-      <c r="Q80" t="inlineStr"/>
+      <c r="Q80" t="n">
+        <v>2492</v>
+      </c>
       <c r="R80" t="n">
         <v>1297</v>
       </c>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
+      <c r="S80" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U80" t="n">
+        <v>10825226</v>
+      </c>
+      <c r="V80" t="n">
+        <v>3</v>
+      </c>
+      <c r="W80" t="n">
+        <v>20</v>
+      </c>
+      <c r="X80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1270</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -5768,17 +6696,33 @@
       <c r="P81" t="n">
         <v>180</v>
       </c>
-      <c r="Q81" t="inlineStr"/>
+      <c r="Q81" t="n">
+        <v>2492</v>
+      </c>
       <c r="R81" t="n">
         <v>1297</v>
       </c>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
+      <c r="S81" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U81" t="n">
+        <v>10825226</v>
+      </c>
+      <c r="V81" t="n">
+        <v>3</v>
+      </c>
+      <c r="W81" t="n">
+        <v>20</v>
+      </c>
+      <c r="X81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1270</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -5829,17 +6773,33 @@
       <c r="P82" t="n">
         <v>180</v>
       </c>
-      <c r="Q82" t="inlineStr"/>
+      <c r="Q82" t="n">
+        <v>2492</v>
+      </c>
       <c r="R82" t="n">
         <v>1296</v>
       </c>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
+      <c r="S82" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U82" t="n">
+        <v>10825226</v>
+      </c>
+      <c r="V82" t="n">
+        <v>3</v>
+      </c>
+      <c r="W82" t="n">
+        <v>20</v>
+      </c>
+      <c r="X82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1270</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -5890,17 +6850,33 @@
       <c r="P83" t="n">
         <v>180</v>
       </c>
-      <c r="Q83" t="inlineStr"/>
+      <c r="Q83" t="n">
+        <v>2492</v>
+      </c>
       <c r="R83" t="n">
         <v>1296</v>
       </c>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
+      <c r="S83" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U83" t="n">
+        <v>10825226</v>
+      </c>
+      <c r="V83" t="n">
+        <v>3</v>
+      </c>
+      <c r="W83" t="n">
+        <v>20</v>
+      </c>
+      <c r="X83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1270</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -5951,7 +6927,9 @@
       <c r="P84" t="n">
         <v>180</v>
       </c>
-      <c r="Q84" t="inlineStr"/>
+      <c r="Q84" t="n">
+        <v>2492</v>
+      </c>
       <c r="R84" t="n">
         <v>1298</v>
       </c>
@@ -5970,7 +6948,9 @@
       <c r="W84" t="n">
         <v>20</v>
       </c>
-      <c r="X84" t="inlineStr"/>
+      <c r="X84" t="n">
+        <v>1</v>
+      </c>
       <c r="Y84" t="n">
         <v>1514</v>
       </c>
@@ -6024,17 +7004,33 @@
       <c r="P85" t="n">
         <v>180</v>
       </c>
-      <c r="Q85" t="inlineStr"/>
+      <c r="Q85" t="n">
+        <v>2492</v>
+      </c>
       <c r="R85" t="n">
         <v>1296</v>
       </c>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
+      <c r="S85" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U85" t="n">
+        <v>10825526</v>
+      </c>
+      <c r="V85" t="n">
+        <v>3</v>
+      </c>
+      <c r="W85" t="n">
+        <v>20</v>
+      </c>
+      <c r="X85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1514</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -6085,17 +7081,33 @@
       <c r="P86" t="n">
         <v>180</v>
       </c>
-      <c r="Q86" t="inlineStr"/>
+      <c r="Q86" t="n">
+        <v>2492</v>
+      </c>
       <c r="R86" t="n">
         <v>1296</v>
       </c>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
+      <c r="S86" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U86" t="n">
+        <v>10825526</v>
+      </c>
+      <c r="V86" t="n">
+        <v>3</v>
+      </c>
+      <c r="W86" t="n">
+        <v>20</v>
+      </c>
+      <c r="X86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>1514</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -6146,17 +7158,33 @@
       <c r="P87" t="n">
         <v>180</v>
       </c>
-      <c r="Q87" t="inlineStr"/>
+      <c r="Q87" t="n">
+        <v>2492</v>
+      </c>
       <c r="R87" t="n">
         <v>1296</v>
       </c>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
+      <c r="S87" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U87" t="n">
+        <v>10825526</v>
+      </c>
+      <c r="V87" t="n">
+        <v>3</v>
+      </c>
+      <c r="W87" t="n">
+        <v>20</v>
+      </c>
+      <c r="X87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>1514</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -6207,17 +7235,33 @@
       <c r="P88" t="n">
         <v>180</v>
       </c>
-      <c r="Q88" t="inlineStr"/>
+      <c r="Q88" t="n">
+        <v>2492</v>
+      </c>
       <c r="R88" t="n">
         <v>1296</v>
       </c>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
+      <c r="S88" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U88" t="n">
+        <v>10825526</v>
+      </c>
+      <c r="V88" t="n">
+        <v>3</v>
+      </c>
+      <c r="W88" t="n">
+        <v>20</v>
+      </c>
+      <c r="X88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>1514</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -6268,7 +7312,9 @@
       <c r="P89" t="n">
         <v>180</v>
       </c>
-      <c r="Q89" t="inlineStr"/>
+      <c r="Q89" t="n">
+        <v>2492</v>
+      </c>
       <c r="R89" t="n">
         <v>1296</v>
       </c>
@@ -6287,7 +7333,9 @@
       <c r="W89" t="n">
         <v>18</v>
       </c>
-      <c r="X89" t="inlineStr"/>
+      <c r="X89" t="n">
+        <v>1</v>
+      </c>
       <c r="Y89" t="n">
         <v>1789</v>
       </c>
@@ -6341,17 +7389,33 @@
       <c r="P90" t="n">
         <v>180</v>
       </c>
-      <c r="Q90" t="inlineStr"/>
+      <c r="Q90" t="n">
+        <v>2492</v>
+      </c>
       <c r="R90" t="n">
         <v>1297</v>
       </c>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
+      <c r="S90" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U90" t="n">
+        <v>10825826</v>
+      </c>
+      <c r="V90" t="n">
+        <v>3</v>
+      </c>
+      <c r="W90" t="n">
+        <v>18</v>
+      </c>
+      <c r="X90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>1789</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -6402,17 +7466,33 @@
       <c r="P91" t="n">
         <v>180</v>
       </c>
-      <c r="Q91" t="inlineStr"/>
+      <c r="Q91" t="n">
+        <v>2492</v>
+      </c>
       <c r="R91" t="n">
         <v>1296</v>
       </c>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
+      <c r="S91" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U91" t="n">
+        <v>10825826</v>
+      </c>
+      <c r="V91" t="n">
+        <v>3</v>
+      </c>
+      <c r="W91" t="n">
+        <v>18</v>
+      </c>
+      <c r="X91" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1789</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -6463,17 +7543,33 @@
       <c r="P92" t="n">
         <v>180</v>
       </c>
-      <c r="Q92" t="inlineStr"/>
+      <c r="Q92" t="n">
+        <v>2492</v>
+      </c>
       <c r="R92" t="n">
         <v>1297</v>
       </c>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
+      <c r="S92" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U92" t="n">
+        <v>10825826</v>
+      </c>
+      <c r="V92" t="n">
+        <v>3</v>
+      </c>
+      <c r="W92" t="n">
+        <v>18</v>
+      </c>
+      <c r="X92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1789</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -6524,17 +7620,33 @@
       <c r="P93" t="n">
         <v>180</v>
       </c>
-      <c r="Q93" t="inlineStr"/>
+      <c r="Q93" t="n">
+        <v>2492</v>
+      </c>
       <c r="R93" t="n">
         <v>1297</v>
       </c>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
+      <c r="S93" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U93" t="n">
+        <v>10825826</v>
+      </c>
+      <c r="V93" t="n">
+        <v>3</v>
+      </c>
+      <c r="W93" t="n">
+        <v>18</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1789</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -6585,7 +7697,9 @@
       <c r="P94" t="n">
         <v>180</v>
       </c>
-      <c r="Q94" t="inlineStr"/>
+      <c r="Q94" t="n">
+        <v>2492</v>
+      </c>
       <c r="R94" t="n">
         <v>1298</v>
       </c>
@@ -6604,7 +7718,9 @@
       <c r="W94" t="n">
         <v>20</v>
       </c>
-      <c r="X94" t="inlineStr"/>
+      <c r="X94" t="n">
+        <v>1</v>
+      </c>
       <c r="Y94" t="n">
         <v>1537</v>
       </c>
@@ -6658,17 +7774,33 @@
       <c r="P95" t="n">
         <v>180</v>
       </c>
-      <c r="Q95" t="inlineStr"/>
+      <c r="Q95" t="n">
+        <v>2492</v>
+      </c>
       <c r="R95" t="n">
         <v>1297</v>
       </c>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
+      <c r="S95" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U95" t="n">
+        <v>10826126</v>
+      </c>
+      <c r="V95" t="n">
+        <v>3</v>
+      </c>
+      <c r="W95" t="n">
+        <v>20</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1537</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -6719,17 +7851,33 @@
       <c r="P96" t="n">
         <v>180</v>
       </c>
-      <c r="Q96" t="inlineStr"/>
+      <c r="Q96" t="n">
+        <v>2492</v>
+      </c>
       <c r="R96" t="n">
         <v>1297</v>
       </c>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
+      <c r="S96" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U96" t="n">
+        <v>10826126</v>
+      </c>
+      <c r="V96" t="n">
+        <v>3</v>
+      </c>
+      <c r="W96" t="n">
+        <v>20</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1537</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -6780,17 +7928,33 @@
       <c r="P97" t="n">
         <v>180</v>
       </c>
-      <c r="Q97" t="inlineStr"/>
+      <c r="Q97" t="n">
+        <v>2492</v>
+      </c>
       <c r="R97" t="n">
         <v>1296</v>
       </c>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
+      <c r="S97" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U97" t="n">
+        <v>10826126</v>
+      </c>
+      <c r="V97" t="n">
+        <v>3</v>
+      </c>
+      <c r="W97" t="n">
+        <v>20</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1537</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -6841,17 +8005,33 @@
       <c r="P98" t="n">
         <v>180</v>
       </c>
-      <c r="Q98" t="inlineStr"/>
+      <c r="Q98" t="n">
+        <v>2492</v>
+      </c>
       <c r="R98" t="n">
         <v>1296</v>
       </c>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
+      <c r="S98" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U98" t="n">
+        <v>10826126</v>
+      </c>
+      <c r="V98" t="n">
+        <v>3</v>
+      </c>
+      <c r="W98" t="n">
+        <v>20</v>
+      </c>
+      <c r="X98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1537</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -6902,7 +8082,9 @@
       <c r="P99" t="n">
         <v>180</v>
       </c>
-      <c r="Q99" t="inlineStr"/>
+      <c r="Q99" t="n">
+        <v>2492</v>
+      </c>
       <c r="R99" t="n">
         <v>1298</v>
       </c>
@@ -6921,7 +8103,9 @@
       <c r="W99" t="n">
         <v>19</v>
       </c>
-      <c r="X99" t="inlineStr"/>
+      <c r="X99" t="n">
+        <v>1</v>
+      </c>
       <c r="Y99" t="n">
         <v>1375</v>
       </c>
@@ -6975,17 +8159,33 @@
       <c r="P100" t="n">
         <v>177</v>
       </c>
-      <c r="Q100" t="inlineStr"/>
+      <c r="Q100" t="n">
+        <v>2492</v>
+      </c>
       <c r="R100" t="n">
         <v>1314</v>
       </c>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
+      <c r="S100" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U100" t="n">
+        <v>10826426</v>
+      </c>
+      <c r="V100" t="n">
+        <v>3</v>
+      </c>
+      <c r="W100" t="n">
+        <v>19</v>
+      </c>
+      <c r="X100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1375</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -7036,17 +8236,33 @@
       <c r="P101" t="n">
         <v>177</v>
       </c>
-      <c r="Q101" t="inlineStr"/>
+      <c r="Q101" t="n">
+        <v>2492</v>
+      </c>
       <c r="R101" t="n">
         <v>1291</v>
       </c>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="S101" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U101" t="n">
+        <v>10826426</v>
+      </c>
+      <c r="V101" t="n">
+        <v>3</v>
+      </c>
+      <c r="W101" t="n">
+        <v>19</v>
+      </c>
+      <c r="X101" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1375</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -7097,17 +8313,33 @@
       <c r="P102" t="n">
         <v>172</v>
       </c>
-      <c r="Q102" t="inlineStr"/>
+      <c r="Q102" t="n">
+        <v>2492</v>
+      </c>
       <c r="R102" t="n">
         <v>1291</v>
       </c>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
+      <c r="S102" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U102" t="n">
+        <v>10826426</v>
+      </c>
+      <c r="V102" t="n">
+        <v>3</v>
+      </c>
+      <c r="W102" t="n">
+        <v>19</v>
+      </c>
+      <c r="X102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1375</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -7158,17 +8390,33 @@
       <c r="P103" t="n">
         <v>171</v>
       </c>
-      <c r="Q103" t="inlineStr"/>
+      <c r="Q103" t="n">
+        <v>2492</v>
+      </c>
       <c r="R103" t="n">
         <v>1290</v>
       </c>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
+      <c r="S103" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U103" t="n">
+        <v>10826426</v>
+      </c>
+      <c r="V103" t="n">
+        <v>3</v>
+      </c>
+      <c r="W103" t="n">
+        <v>19</v>
+      </c>
+      <c r="X103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1375</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -7219,7 +8467,9 @@
       <c r="P104" t="n">
         <v>171</v>
       </c>
-      <c r="Q104" t="inlineStr"/>
+      <c r="Q104" t="n">
+        <v>2492</v>
+      </c>
       <c r="R104" t="n">
         <v>1292</v>
       </c>
@@ -7238,7 +8488,9 @@
       <c r="W104" t="n">
         <v>20</v>
       </c>
-      <c r="X104" t="inlineStr"/>
+      <c r="X104" t="n">
+        <v>1</v>
+      </c>
       <c r="Y104" t="n">
         <v>1131</v>
       </c>
@@ -7292,17 +8544,33 @@
       <c r="P105" t="n">
         <v>171</v>
       </c>
-      <c r="Q105" t="inlineStr"/>
+      <c r="Q105" t="n">
+        <v>2492</v>
+      </c>
       <c r="R105" t="n">
         <v>1290</v>
       </c>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
+      <c r="S105" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U105" t="n">
+        <v>10826726</v>
+      </c>
+      <c r="V105" t="n">
+        <v>3</v>
+      </c>
+      <c r="W105" t="n">
+        <v>20</v>
+      </c>
+      <c r="X105" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>1131</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -7353,17 +8621,33 @@
       <c r="P106" t="n">
         <v>171</v>
       </c>
-      <c r="Q106" t="inlineStr"/>
+      <c r="Q106" t="n">
+        <v>2492</v>
+      </c>
       <c r="R106" t="n">
         <v>1289</v>
       </c>
-      <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
+      <c r="S106" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U106" t="n">
+        <v>10826726</v>
+      </c>
+      <c r="V106" t="n">
+        <v>3</v>
+      </c>
+      <c r="W106" t="n">
+        <v>20</v>
+      </c>
+      <c r="X106" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1131</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -7414,17 +8698,33 @@
       <c r="P107" t="n">
         <v>171</v>
       </c>
-      <c r="Q107" t="inlineStr"/>
+      <c r="Q107" t="n">
+        <v>2492</v>
+      </c>
       <c r="R107" t="n">
         <v>1289</v>
       </c>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
+      <c r="S107" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U107" t="n">
+        <v>10826726</v>
+      </c>
+      <c r="V107" t="n">
+        <v>3</v>
+      </c>
+      <c r="W107" t="n">
+        <v>20</v>
+      </c>
+      <c r="X107" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1131</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -7475,17 +8775,33 @@
       <c r="P108" t="n">
         <v>171</v>
       </c>
-      <c r="Q108" t="inlineStr"/>
+      <c r="Q108" t="n">
+        <v>2492</v>
+      </c>
       <c r="R108" t="n">
         <v>1289</v>
       </c>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
+      <c r="S108" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U108" t="n">
+        <v>10826726</v>
+      </c>
+      <c r="V108" t="n">
+        <v>3</v>
+      </c>
+      <c r="W108" t="n">
+        <v>20</v>
+      </c>
+      <c r="X108" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>1131</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -7536,7 +8852,9 @@
       <c r="P109" t="n">
         <v>171</v>
       </c>
-      <c r="Q109" t="inlineStr"/>
+      <c r="Q109" t="n">
+        <v>2492</v>
+      </c>
       <c r="R109" t="n">
         <v>1290</v>
       </c>
@@ -7555,7 +8873,9 @@
       <c r="W109" t="n">
         <v>20</v>
       </c>
-      <c r="X109" t="inlineStr"/>
+      <c r="X109" t="n">
+        <v>1</v>
+      </c>
       <c r="Y109" t="n">
         <v>1528</v>
       </c>
@@ -7609,17 +8929,33 @@
       <c r="P110" t="n">
         <v>171</v>
       </c>
-      <c r="Q110" t="inlineStr"/>
+      <c r="Q110" t="n">
+        <v>2492</v>
+      </c>
       <c r="R110" t="n">
         <v>1290</v>
       </c>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
+      <c r="S110" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U110" t="n">
+        <v>10827026</v>
+      </c>
+      <c r="V110" t="n">
+        <v>3</v>
+      </c>
+      <c r="W110" t="n">
+        <v>20</v>
+      </c>
+      <c r="X110" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>1528</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -7670,17 +9006,33 @@
       <c r="P111" t="n">
         <v>171</v>
       </c>
-      <c r="Q111" t="inlineStr"/>
+      <c r="Q111" t="n">
+        <v>2492</v>
+      </c>
       <c r="R111" t="n">
         <v>1290</v>
       </c>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
+      <c r="S111" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U111" t="n">
+        <v>10827026</v>
+      </c>
+      <c r="V111" t="n">
+        <v>3</v>
+      </c>
+      <c r="W111" t="n">
+        <v>20</v>
+      </c>
+      <c r="X111" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1528</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -7731,17 +9083,33 @@
       <c r="P112" t="n">
         <v>171</v>
       </c>
-      <c r="Q112" t="inlineStr"/>
+      <c r="Q112" t="n">
+        <v>2492</v>
+      </c>
       <c r="R112" t="n">
         <v>1296</v>
       </c>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
+      <c r="S112" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U112" t="n">
+        <v>10827026</v>
+      </c>
+      <c r="V112" t="n">
+        <v>3</v>
+      </c>
+      <c r="W112" t="n">
+        <v>20</v>
+      </c>
+      <c r="X112" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1528</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -7792,17 +9160,33 @@
       <c r="P113" t="n">
         <v>171</v>
       </c>
-      <c r="Q113" t="inlineStr"/>
+      <c r="Q113" t="n">
+        <v>2492</v>
+      </c>
       <c r="R113" t="n">
         <v>1296</v>
       </c>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
+      <c r="S113" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U113" t="n">
+        <v>10827026</v>
+      </c>
+      <c r="V113" t="n">
+        <v>3</v>
+      </c>
+      <c r="W113" t="n">
+        <v>20</v>
+      </c>
+      <c r="X113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>1528</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -7853,7 +9237,9 @@
       <c r="P114" t="n">
         <v>171</v>
       </c>
-      <c r="Q114" t="inlineStr"/>
+      <c r="Q114" t="n">
+        <v>2492</v>
+      </c>
       <c r="R114" t="n">
         <v>1299</v>
       </c>
@@ -7872,7 +9258,9 @@
       <c r="W114" t="n">
         <v>20</v>
       </c>
-      <c r="X114" t="inlineStr"/>
+      <c r="X114" t="n">
+        <v>1</v>
+      </c>
       <c r="Y114" t="n">
         <v>1818</v>
       </c>
@@ -7926,17 +9314,33 @@
       <c r="P115" t="n">
         <v>171</v>
       </c>
-      <c r="Q115" t="inlineStr"/>
+      <c r="Q115" t="n">
+        <v>2492</v>
+      </c>
       <c r="R115" t="n">
         <v>1290</v>
       </c>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
+      <c r="S115" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U115" t="n">
+        <v>10827326</v>
+      </c>
+      <c r="V115" t="n">
+        <v>3</v>
+      </c>
+      <c r="W115" t="n">
+        <v>20</v>
+      </c>
+      <c r="X115" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>1818</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -7987,17 +9391,33 @@
       <c r="P116" t="n">
         <v>171</v>
       </c>
-      <c r="Q116" t="inlineStr"/>
+      <c r="Q116" t="n">
+        <v>2492</v>
+      </c>
       <c r="R116" t="n">
         <v>1291</v>
       </c>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
+      <c r="S116" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U116" t="n">
+        <v>10827326</v>
+      </c>
+      <c r="V116" t="n">
+        <v>3</v>
+      </c>
+      <c r="W116" t="n">
+        <v>20</v>
+      </c>
+      <c r="X116" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1818</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -8048,17 +9468,33 @@
       <c r="P117" t="n">
         <v>171</v>
       </c>
-      <c r="Q117" t="inlineStr"/>
+      <c r="Q117" t="n">
+        <v>2492</v>
+      </c>
       <c r="R117" t="n">
         <v>1290</v>
       </c>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
+      <c r="S117" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U117" t="n">
+        <v>10827326</v>
+      </c>
+      <c r="V117" t="n">
+        <v>3</v>
+      </c>
+      <c r="W117" t="n">
+        <v>20</v>
+      </c>
+      <c r="X117" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>1818</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -8109,17 +9545,33 @@
       <c r="P118" t="n">
         <v>171</v>
       </c>
-      <c r="Q118" t="inlineStr"/>
+      <c r="Q118" t="n">
+        <v>2492</v>
+      </c>
       <c r="R118" t="n">
         <v>1290</v>
       </c>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
+      <c r="S118" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U118" t="n">
+        <v>10827326</v>
+      </c>
+      <c r="V118" t="n">
+        <v>3</v>
+      </c>
+      <c r="W118" t="n">
+        <v>20</v>
+      </c>
+      <c r="X118" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>1818</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -8170,7 +9622,9 @@
       <c r="P119" t="n">
         <v>171</v>
       </c>
-      <c r="Q119" t="inlineStr"/>
+      <c r="Q119" t="n">
+        <v>2492</v>
+      </c>
       <c r="R119" t="n">
         <v>1293</v>
       </c>
@@ -8189,7 +9643,9 @@
       <c r="W119" t="n">
         <v>19</v>
       </c>
-      <c r="X119" t="inlineStr"/>
+      <c r="X119" t="n">
+        <v>1</v>
+      </c>
       <c r="Y119" t="n">
         <v>1756</v>
       </c>
@@ -8243,17 +9699,33 @@
       <c r="P120" t="n">
         <v>171</v>
       </c>
-      <c r="Q120" t="inlineStr"/>
+      <c r="Q120" t="n">
+        <v>2492</v>
+      </c>
       <c r="R120" t="n">
         <v>1292</v>
       </c>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
+      <c r="S120" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U120" t="n">
+        <v>10827626</v>
+      </c>
+      <c r="V120" t="n">
+        <v>3</v>
+      </c>
+      <c r="W120" t="n">
+        <v>19</v>
+      </c>
+      <c r="X120" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>1756</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -8304,17 +9776,33 @@
       <c r="P121" t="n">
         <v>171</v>
       </c>
-      <c r="Q121" t="inlineStr"/>
+      <c r="Q121" t="n">
+        <v>2492</v>
+      </c>
       <c r="R121" t="n">
         <v>1292</v>
       </c>
-      <c r="S121" t="inlineStr"/>
-      <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
+      <c r="S121" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U121" t="n">
+        <v>10827626</v>
+      </c>
+      <c r="V121" t="n">
+        <v>3</v>
+      </c>
+      <c r="W121" t="n">
+        <v>19</v>
+      </c>
+      <c r="X121" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>1756</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -8371,13 +9859,27 @@
       <c r="R122" t="n">
         <v>1293</v>
       </c>
-      <c r="S122" t="inlineStr"/>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
+      <c r="S122" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T122" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U122" t="n">
+        <v>10827626</v>
+      </c>
+      <c r="V122" t="n">
+        <v>3</v>
+      </c>
+      <c r="W122" t="n">
+        <v>19</v>
+      </c>
+      <c r="X122" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>1756</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -8434,13 +9936,27 @@
       <c r="R123" t="n">
         <v>1294</v>
       </c>
-      <c r="S123" t="inlineStr"/>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
+      <c r="S123" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T123" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U123" t="n">
+        <v>10827626</v>
+      </c>
+      <c r="V123" t="n">
+        <v>3</v>
+      </c>
+      <c r="W123" t="n">
+        <v>19</v>
+      </c>
+      <c r="X123" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>1756</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -8574,13 +10090,27 @@
       <c r="R125" t="n">
         <v>1293</v>
       </c>
-      <c r="S125" t="inlineStr"/>
-      <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
-      <c r="W125" t="inlineStr"/>
-      <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr"/>
+      <c r="S125" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T125" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U125" t="n">
+        <v>10827926</v>
+      </c>
+      <c r="V125" t="n">
+        <v>3</v>
+      </c>
+      <c r="W125" t="n">
+        <v>21</v>
+      </c>
+      <c r="X125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>1712</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -8637,13 +10167,27 @@
       <c r="R126" t="n">
         <v>1293</v>
       </c>
-      <c r="S126" t="inlineStr"/>
-      <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
+      <c r="S126" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T126" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U126" t="n">
+        <v>10827926</v>
+      </c>
+      <c r="V126" t="n">
+        <v>3</v>
+      </c>
+      <c r="W126" t="n">
+        <v>21</v>
+      </c>
+      <c r="X126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>1712</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -8700,13 +10244,27 @@
       <c r="R127" t="n">
         <v>1293</v>
       </c>
-      <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
+      <c r="S127" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U127" t="n">
+        <v>10827926</v>
+      </c>
+      <c r="V127" t="n">
+        <v>3</v>
+      </c>
+      <c r="W127" t="n">
+        <v>21</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>1712</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -8763,13 +10321,27 @@
       <c r="R128" t="n">
         <v>1297</v>
       </c>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
+      <c r="S128" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T128" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U128" t="n">
+        <v>10827926</v>
+      </c>
+      <c r="V128" t="n">
+        <v>3</v>
+      </c>
+      <c r="W128" t="n">
+        <v>21</v>
+      </c>
+      <c r="X128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>1712</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -8903,13 +10475,27 @@
       <c r="R130" t="n">
         <v>1296</v>
       </c>
-      <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
-      <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
+      <c r="S130" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T130" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U130" t="n">
+        <v>10828226</v>
+      </c>
+      <c r="V130" t="n">
+        <v>3</v>
+      </c>
+      <c r="W130" t="n">
+        <v>18</v>
+      </c>
+      <c r="X130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>1776</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -8966,13 +10552,27 @@
       <c r="R131" t="n">
         <v>1294</v>
       </c>
-      <c r="S131" t="inlineStr"/>
-      <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr"/>
-      <c r="V131" t="inlineStr"/>
-      <c r="W131" t="inlineStr"/>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
+      <c r="S131" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T131" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U131" t="n">
+        <v>10828226</v>
+      </c>
+      <c r="V131" t="n">
+        <v>3</v>
+      </c>
+      <c r="W131" t="n">
+        <v>18</v>
+      </c>
+      <c r="X131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>1776</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -9029,13 +10629,27 @@
       <c r="R132" t="n">
         <v>1293</v>
       </c>
-      <c r="S132" t="inlineStr"/>
-      <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr"/>
-      <c r="V132" t="inlineStr"/>
-      <c r="W132" t="inlineStr"/>
-      <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
+      <c r="S132" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T132" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U132" t="n">
+        <v>10828226</v>
+      </c>
+      <c r="V132" t="n">
+        <v>3</v>
+      </c>
+      <c r="W132" t="n">
+        <v>18</v>
+      </c>
+      <c r="X132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>1776</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -9092,13 +10706,27 @@
       <c r="R133" t="n">
         <v>1293</v>
       </c>
-      <c r="S133" t="inlineStr"/>
-      <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr"/>
-      <c r="V133" t="inlineStr"/>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
+      <c r="S133" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U133" t="n">
+        <v>10828226</v>
+      </c>
+      <c r="V133" t="n">
+        <v>3</v>
+      </c>
+      <c r="W133" t="n">
+        <v>18</v>
+      </c>
+      <c r="X133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>1776</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -9232,13 +10860,27 @@
       <c r="R135" t="n">
         <v>1293</v>
       </c>
-      <c r="S135" t="inlineStr"/>
-      <c r="T135" t="inlineStr"/>
-      <c r="U135" t="inlineStr"/>
-      <c r="V135" t="inlineStr"/>
-      <c r="W135" t="inlineStr"/>
-      <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr"/>
+      <c r="S135" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T135" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U135" t="n">
+        <v>10828526</v>
+      </c>
+      <c r="V135" t="n">
+        <v>3</v>
+      </c>
+      <c r="W135" t="n">
+        <v>21</v>
+      </c>
+      <c r="X135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>1424</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -9295,13 +10937,27 @@
       <c r="R136" t="n">
         <v>1293</v>
       </c>
-      <c r="S136" t="inlineStr"/>
-      <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
+      <c r="S136" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T136" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U136" t="n">
+        <v>10828526</v>
+      </c>
+      <c r="V136" t="n">
+        <v>3</v>
+      </c>
+      <c r="W136" t="n">
+        <v>21</v>
+      </c>
+      <c r="X136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>1424</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -9358,13 +11014,27 @@
       <c r="R137" t="n">
         <v>1293</v>
       </c>
-      <c r="S137" t="inlineStr"/>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
+      <c r="S137" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T137" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U137" t="n">
+        <v>10828526</v>
+      </c>
+      <c r="V137" t="n">
+        <v>3</v>
+      </c>
+      <c r="W137" t="n">
+        <v>21</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>1424</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -9421,13 +11091,27 @@
       <c r="R138" t="n">
         <v>1294</v>
       </c>
-      <c r="S138" t="inlineStr"/>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
+      <c r="S138" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T138" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U138" t="n">
+        <v>10828526</v>
+      </c>
+      <c r="V138" t="n">
+        <v>3</v>
+      </c>
+      <c r="W138" t="n">
+        <v>21</v>
+      </c>
+      <c r="X138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>1424</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -9561,13 +11245,27 @@
       <c r="R140" t="n">
         <v>1293</v>
       </c>
-      <c r="S140" t="inlineStr"/>
-      <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
-      <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
+      <c r="S140" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T140" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U140" t="n">
+        <v>10828827</v>
+      </c>
+      <c r="V140" t="n">
+        <v>3</v>
+      </c>
+      <c r="W140" t="n">
+        <v>18</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>1811</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -9624,13 +11322,27 @@
       <c r="R141" t="n">
         <v>1293</v>
       </c>
-      <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
-      <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
+      <c r="S141" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T141" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U141" t="n">
+        <v>10828827</v>
+      </c>
+      <c r="V141" t="n">
+        <v>3</v>
+      </c>
+      <c r="W141" t="n">
+        <v>18</v>
+      </c>
+      <c r="X141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>1811</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -9687,13 +11399,27 @@
       <c r="R142" t="n">
         <v>1294</v>
       </c>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
+      <c r="S142" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T142" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U142" t="n">
+        <v>10828827</v>
+      </c>
+      <c r="V142" t="n">
+        <v>3</v>
+      </c>
+      <c r="W142" t="n">
+        <v>18</v>
+      </c>
+      <c r="X142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>1811</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -9750,44 +11476,104 @@
       <c r="R143" t="n">
         <v>1293</v>
       </c>
-      <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
+      <c r="S143" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U143" t="n">
+        <v>10828827</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3</v>
+      </c>
+      <c r="W143" t="n">
+        <v>18</v>
+      </c>
+      <c r="X143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>1811</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
         <v>45186.76597222222</v>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>95.64</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>4.36</v>
+      </c>
       <c r="E144" t="n">
         <v>2.35</v>
       </c>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
-      <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
-      <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
+      <c r="F144" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2615</v>
+      </c>
+      <c r="M144" t="n">
+        <v>130</v>
+      </c>
+      <c r="N144" t="n">
+        <v>34.13</v>
+      </c>
+      <c r="O144" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="P144" t="n">
+        <v>171</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>2496</v>
+      </c>
+      <c r="R144" t="n">
+        <v>1293</v>
+      </c>
+      <c r="S144" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T144" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U144" t="n">
+        <v>10828827</v>
+      </c>
+      <c r="V144" t="n">
+        <v>3</v>
+      </c>
+      <c r="W144" t="n">
+        <v>18</v>
+      </c>
+      <c r="X144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>1811</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
